--- a/Budgets/Clifftown 2017 Budget draft 1.xlsx
+++ b/Budgets/Clifftown 2017 Budget draft 1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="530">
   <si>
     <t>Variance</t>
   </si>
@@ -1496,9 +1496,6 @@
     <t> CAM- LIGHTING</t>
   </si>
   <si>
-    <t>$75K? LED Retrofit Parking Lot - Potential Vendor: YESCO, BROADWAY LIGHTING</t>
-  </si>
-  <si>
     <t>reduced by 30% due to CRS SF increase</t>
   </si>
   <si>
@@ -1628,9 +1625,6 @@
     <t>based on actual and bump of 10%</t>
   </si>
   <si>
-    <t>House meters are 6980653008 and 6980273701 (based on actual)</t>
-  </si>
-  <si>
     <t>actual</t>
   </si>
   <si>
@@ -1641,6 +1635,24 @@
   </si>
   <si>
     <t>HOLIDAY EXPENSE</t>
+  </si>
+  <si>
+    <t>numbers are from JB</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>House meters are 6980653008 and 6980273701 (JB)</t>
+  </si>
+  <si>
+    <t>Tenant Sign Lighting</t>
+  </si>
+  <si>
+    <t>JB - seasonal landscaping</t>
+  </si>
+  <si>
+    <t>2nd and 3rd installment for Max Fitness</t>
   </si>
 </sst>
 </file>
@@ -5824,7 +5836,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" s="133">
         <v>1.49E-2</v>
@@ -5866,7 +5878,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B4" s="133">
         <v>0.124</v>
@@ -6335,7 +6347,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B16" s="178">
         <v>42165</v>
@@ -6377,7 +6389,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" s="178">
         <f>(B16*5)*0.05</f>
@@ -6420,7 +6432,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B18" s="177">
         <f>$B$17/4</f>
@@ -6463,7 +6475,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B19" s="177">
         <f t="shared" ref="B19:B21" si="7">$B$17/4</f>
@@ -6506,7 +6518,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B20" s="177">
         <f t="shared" si="7"/>
@@ -6549,7 +6561,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B21" s="177">
         <f t="shared" si="7"/>
@@ -13243,10 +13255,10 @@
   <dimension ref="A1:AE214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88:M88"/>
+      <selection pane="bottomRight" activeCell="S112" sqref="S112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -13268,7 +13280,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="193" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="193"/>
       <c r="C1" s="193"/>
@@ -13399,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="147" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S5" s="98" t="s">
         <v>203</v>
@@ -13568,7 +13580,7 @@
     <row r="11" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C11" s="94">
         <v>38458</v>
@@ -13637,7 +13649,7 @@
     <row r="12" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C12" s="94">
         <v>57000</v>
@@ -13703,13 +13715,13 @@
         <v>-3.3799298245613868E-2</v>
       </c>
       <c r="S12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C13" s="94">
         <v>39721</v>
@@ -13778,7 +13790,7 @@
     <row r="14" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="169"/>
       <c r="B14" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C14" s="94">
         <v>42840</v>
@@ -13847,7 +13859,7 @@
     <row r="15" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C15" s="94">
         <v>14822</v>
@@ -13916,7 +13928,7 @@
     <row r="16" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C16" s="94">
         <v>0</v>
@@ -13985,7 +13997,7 @@
     <row r="17" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C17" s="94">
         <v>168636</v>
@@ -14051,13 +14063,13 @@
         <v>-8.433715220949263E-2</v>
       </c>
       <c r="S17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C18" s="94">
         <v>53405</v>
@@ -14126,7 +14138,7 @@
     <row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C19" s="94">
         <v>50428</v>
@@ -14485,7 +14497,7 @@
     <row r="27" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C27" s="94">
         <v>19416</v>
@@ -14554,7 +14566,7 @@
     <row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C28" s="94">
         <v>0</v>
@@ -14623,7 +14635,7 @@
     <row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C29" s="94">
         <v>18864</v>
@@ -14689,13 +14701,13 @@
         <v>-1.2729007633587731E-2</v>
       </c>
       <c r="S29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C30" s="94">
         <v>18337</v>
@@ -14764,7 +14776,7 @@
     <row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="169"/>
       <c r="B31" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C31" s="94">
         <v>7264</v>
@@ -14833,7 +14845,7 @@
     <row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C32" s="94">
         <v>0</v>
@@ -14902,7 +14914,7 @@
     <row r="33" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C33" s="94">
         <v>40797</v>
@@ -14971,7 +14983,7 @@
     <row r="34" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" s="94">
         <v>15227</v>
@@ -15040,7 +15052,7 @@
     <row r="35" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C35" s="94">
         <v>0</v>
@@ -15181,7 +15193,7 @@
     <row r="37" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="162"/>
       <c r="B37" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C37" s="94">
         <v>0</v>
@@ -15250,7 +15262,7 @@
     <row r="38" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="169"/>
       <c r="B38" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C38" s="94"/>
       <c r="D38" s="94">
@@ -15311,7 +15323,7 @@
     <row r="39" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="169"/>
       <c r="B39" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C39" s="94"/>
       <c r="D39" s="94">
@@ -15372,7 +15384,7 @@
     <row r="40" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="169"/>
       <c r="B40" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C40" s="94"/>
       <c r="D40" s="94">
@@ -15433,7 +15445,7 @@
     <row r="41" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="169"/>
       <c r="B41" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C41" s="94"/>
       <c r="D41" s="94">
@@ -15494,7 +15506,7 @@
     <row r="42" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="169"/>
       <c r="B42" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C42" s="94"/>
       <c r="D42" s="94">
@@ -15555,7 +15567,7 @@
     <row r="43" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="169"/>
       <c r="B43" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="94">
@@ -15616,7 +15628,7 @@
     <row r="44" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="169"/>
       <c r="B44" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C44" s="94"/>
       <c r="D44" s="94">
@@ -15677,7 +15689,7 @@
     <row r="45" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="169"/>
       <c r="B45" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C45" s="94"/>
       <c r="D45" s="94">
@@ -15810,7 +15822,7 @@
     <row r="47" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C47" s="94"/>
       <c r="D47" s="94">
@@ -15877,7 +15889,7 @@
     <row r="48" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C48" s="94"/>
       <c r="D48" s="94">
@@ -15944,7 +15956,7 @@
     <row r="49" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C49" s="94"/>
       <c r="D49" s="94">
@@ -16011,7 +16023,7 @@
     <row r="50" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="169"/>
       <c r="B50" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C50" s="94"/>
       <c r="D50" s="94">
@@ -16072,7 +16084,7 @@
     <row r="51" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C51" s="94"/>
       <c r="D51" s="94">
@@ -16139,7 +16151,7 @@
     <row r="52" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="94">
@@ -16206,7 +16218,7 @@
     <row r="53" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C53" s="94"/>
       <c r="D53" s="94">
@@ -16273,7 +16285,7 @@
     <row r="54" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C54" s="94"/>
       <c r="D54" s="94">
@@ -16340,7 +16352,7 @@
     <row r="55" spans="1:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C55" s="94"/>
       <c r="D55" s="94">
@@ -17175,10 +17187,10 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="C74" s="95">
         <v>0</v>
@@ -17232,7 +17244,7 @@
         <v/>
       </c>
       <c r="S74" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -17294,7 +17306,7 @@
         <v>7.5437438098382298E-2</v>
       </c>
       <c r="S75" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -17355,6 +17367,9 @@
         <f t="shared" si="14"/>
         <v>-0.64071856287425155</v>
       </c>
+      <c r="S76" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="131" t="s">
@@ -17414,6 +17429,9 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
+      <c r="S77" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -17473,6 +17491,9 @@
         <f t="shared" si="14"/>
         <v>0.34237288135593219</v>
       </c>
+      <c r="S78" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -17533,7 +17554,7 @@
         <v>3.3444816053511704E-2</v>
       </c>
       <c r="S79" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -17654,15 +17675,15 @@
         <v>-0.63358778625954193</v>
       </c>
       <c r="S81" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="152" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="C82" s="95">
         <v>2368</v>
@@ -17716,7 +17737,7 @@
         <v>-0.14145270270270263</v>
       </c>
       <c r="S82" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -17778,7 +17799,7 @@
         <v>8.2209986709701921E-2</v>
       </c>
       <c r="S83" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -17840,7 +17861,7 @@
         <v>0.13408325806716478</v>
       </c>
       <c r="S84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -17913,7 +17934,7 @@
         <v>0.8308702791461412</v>
       </c>
       <c r="S85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -18039,7 +18060,7 @@
         <v>4.2720760869565375E-2</v>
       </c>
       <c r="S87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -18101,7 +18122,7 @@
         <v>0.26824817518248173</v>
       </c>
       <c r="S88" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -18163,7 +18184,7 @@
         <v>0.35865988632964402</v>
       </c>
       <c r="S89" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18512,58 +18533,61 @@
         <v>238</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C96" s="95">
         <v>1200</v>
       </c>
       <c r="D96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J96" s="95">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="K96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O96" s="95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P96" s="94">
         <f>SUM(D96:O96)</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q96" s="94">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="R96" s="149">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="S96" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -18826,7 +18850,7 @@
         <v/>
       </c>
       <c r="S100" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -19065,7 +19089,7 @@
         <v/>
       </c>
       <c r="S104" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -19138,7 +19162,7 @@
         <v/>
       </c>
       <c r="S105" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -19362,63 +19386,55 @@
         <v>2500</v>
       </c>
       <c r="D109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="E109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="F109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="G109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="H109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="I109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="J109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="K109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="L109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="M109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="N109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="O109" s="95">
-        <f t="shared" si="26"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="P109" s="94">
-        <v>5000</v>
+        <f>SUM(D109:O109)</f>
+        <v>2400</v>
       </c>
       <c r="Q109" s="94">
         <f t="shared" si="13"/>
-        <v>2500</v>
+        <v>-100</v>
       </c>
       <c r="R109" s="149">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>-0.04</v>
+      </c>
+      <c r="S109" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -19508,7 +19524,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="95">
-        <v>0</v>
+        <v>2070.7800000000002</v>
       </c>
       <c r="G111" s="95">
         <v>0</v>
@@ -19526,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="95">
-        <v>0</v>
+        <v>2070.7800000000002</v>
       </c>
       <c r="M111" s="95">
         <v>0</v>
@@ -19539,15 +19555,18 @@
       </c>
       <c r="P111" s="94">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4141.5600000000004</v>
       </c>
       <c r="Q111" s="94">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4141.5600000000004</v>
       </c>
       <c r="R111" s="149" t="str">
         <f t="shared" si="14"/>
         <v/>
+      </c>
+      <c r="S111" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19589,63 +19608,63 @@
       </c>
       <c r="D113" s="96">
         <f t="shared" ref="D113:O113" si="28">SUM(D94:D112)</f>
-        <v>19152.626666666667</v>
+        <v>18985.96</v>
       </c>
       <c r="E113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>695</v>
       </c>
       <c r="F113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>2765.78</v>
       </c>
       <c r="G113" s="96">
         <f t="shared" si="28"/>
-        <v>19152.626666666667</v>
+        <v>18985.96</v>
       </c>
       <c r="H113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>695</v>
       </c>
       <c r="I113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>695</v>
       </c>
       <c r="J113" s="96">
         <f t="shared" si="28"/>
-        <v>20352.626666666667</v>
+        <v>18985.96</v>
       </c>
       <c r="K113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>695</v>
       </c>
       <c r="L113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>2765.78</v>
       </c>
       <c r="M113" s="96">
         <f t="shared" si="28"/>
-        <v>19152.626666666667</v>
+        <v>18985.96</v>
       </c>
       <c r="N113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>695</v>
       </c>
       <c r="O113" s="96">
         <f t="shared" si="28"/>
-        <v>861.66666666666674</v>
+        <v>695</v>
       </c>
       <c r="P113" s="96">
         <f>SUM(P94:P112)</f>
-        <v>84703.84</v>
+        <v>85645.4</v>
       </c>
       <c r="Q113" s="96">
         <f t="shared" si="13"/>
-        <v>-5335.1600000000035</v>
+        <v>-4393.6000000000058</v>
       </c>
       <c r="R113" s="149">
         <f t="shared" si="14"/>
-        <v>-5.9253878874709884E-2</v>
+        <v>-4.8796632570330699E-2</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -19719,67 +19738,55 @@
         <v>1119</v>
       </c>
       <c r="D116" s="95">
-        <f t="shared" ref="D116:O116" si="29">$P$116/12</f>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="E116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="F116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="G116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="H116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="I116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="J116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="K116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="L116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="M116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="N116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="O116" s="95">
-        <f t="shared" si="29"/>
-        <v>65.274999999999991</v>
+        <v>80</v>
       </c>
       <c r="P116" s="94">
-        <f>C116*0.7</f>
-        <v>783.3</v>
+        <f>SUM(D116:O116)</f>
+        <v>960</v>
       </c>
       <c r="Q116" s="94">
         <f t="shared" si="13"/>
-        <v>-335.70000000000005</v>
+        <v>-159</v>
       </c>
       <c r="R116" s="149">
         <f t="shared" si="14"/>
-        <v>-0.30000000000000004</v>
+        <v>-0.14209115281501342</v>
       </c>
       <c r="S116" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="U116" s="129"/>
       <c r="V116" s="134"/>
@@ -19849,7 +19856,7 @@
         <v>0.71230769230769231</v>
       </c>
       <c r="S117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U117" s="129"/>
       <c r="V117" s="134"/>
@@ -19867,51 +19874,51 @@
         <v>277</v>
       </c>
       <c r="D118" s="95">
-        <f t="shared" ref="D118:O118" si="30">$P$118/12</f>
+        <f t="shared" ref="D118:O118" si="29">$P$118/12</f>
         <v>16.158333333333331</v>
       </c>
       <c r="E118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="F118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="G118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="H118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="I118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="J118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="K118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="L118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="M118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="N118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="O118" s="95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16.158333333333331</v>
       </c>
       <c r="P118" s="94">
@@ -19927,7 +19934,7 @@
         <v>-0.3000000000000001</v>
       </c>
       <c r="S118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V118" s="134"/>
       <c r="W118" s="134"/>
@@ -19938,7 +19945,7 @@
         <v>260</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C119" s="95">
         <v>2500</v>
@@ -19981,51 +19988,51 @@
         <v>0</v>
       </c>
       <c r="D120" s="95">
-        <f t="shared" ref="D120:O120" si="31">$P$120/12</f>
+        <f t="shared" ref="D120:O120" si="30">$P$120/12</f>
         <v>0</v>
       </c>
       <c r="E120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O120" s="95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P120" s="94">
@@ -20056,47 +20063,47 @@
         <v>5.833333333333333</v>
       </c>
       <c r="E121" s="95">
-        <f t="shared" ref="E121:O121" si="32">$P$121/12</f>
+        <f t="shared" ref="E121:O121" si="31">$P$121/12</f>
         <v>5.833333333333333</v>
       </c>
       <c r="F121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="G121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="H121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="I121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="J121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="K121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="L121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="M121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="N121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="O121" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.833333333333333</v>
       </c>
       <c r="P121" s="94">
@@ -20112,7 +20119,7 @@
         <v>-0.3</v>
       </c>
       <c r="S121" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V121" s="129"/>
       <c r="W121" s="129"/>
@@ -20153,68 +20160,68 @@
         <v>106</v>
       </c>
       <c r="C123" s="96">
-        <f t="shared" ref="C123" si="33">SUM(C116:C122)</f>
+        <f t="shared" ref="C123" si="32">SUM(C116:C122)</f>
         <v>4126</v>
       </c>
       <c r="D123" s="96">
-        <f t="shared" ref="D123:O123" si="34">SUM(D116:D122)</f>
-        <v>87.266666666666652</v>
+        <f t="shared" ref="D123:O123" si="33">SUM(D116:D122)</f>
+        <v>101.99166666666666</v>
       </c>
       <c r="E123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="F123" s="96">
-        <f t="shared" si="34"/>
-        <v>159.36666666666667</v>
+        <f t="shared" si="33"/>
+        <v>174.09166666666667</v>
       </c>
       <c r="G123" s="96">
-        <f t="shared" si="34"/>
-        <v>101.26666666666665</v>
+        <f t="shared" si="33"/>
+        <v>115.99166666666666</v>
       </c>
       <c r="H123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="I123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="J123" s="96">
-        <f t="shared" si="34"/>
-        <v>169.16666666666666</v>
+        <f t="shared" si="33"/>
+        <v>183.89166666666665</v>
       </c>
       <c r="K123" s="96">
-        <f t="shared" si="34"/>
-        <v>141.86666666666665</v>
+        <f t="shared" si="33"/>
+        <v>156.59166666666667</v>
       </c>
       <c r="L123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="M123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="N123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="O123" s="96">
-        <f t="shared" si="34"/>
-        <v>87.266666666666652</v>
+        <f t="shared" si="33"/>
+        <v>101.99166666666666</v>
       </c>
       <c r="P123" s="96">
         <f>SUM(P116:P122)</f>
-        <v>1269.8</v>
+        <v>1446.5</v>
       </c>
       <c r="Q123" s="96">
         <f t="shared" si="13"/>
-        <v>-2856.2</v>
+        <v>-2679.5</v>
       </c>
       <c r="R123" s="149">
         <f t="shared" si="14"/>
-        <v>-0.69224430441105178</v>
+        <v>-0.6494183228308289</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -20340,55 +20347,55 @@
         <v>112</v>
       </c>
       <c r="C127" s="96">
-        <f t="shared" ref="C127:O127" si="35">SUM(C126:C126)</f>
+        <f t="shared" ref="C127:O127" si="34">SUM(C126:C126)</f>
         <v>128062</v>
       </c>
       <c r="D127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9417.33</v>
       </c>
       <c r="E127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9400.98</v>
       </c>
       <c r="F127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9384.58</v>
       </c>
       <c r="G127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9368.1200000000008</v>
       </c>
       <c r="H127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9351.6</v>
       </c>
       <c r="I127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9335.0400000000009</v>
       </c>
       <c r="J127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9318.41</v>
       </c>
       <c r="K127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9301.73</v>
       </c>
       <c r="L127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9284.99</v>
       </c>
       <c r="M127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9268.2000000000007</v>
       </c>
       <c r="N127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9251.36</v>
       </c>
       <c r="O127" s="96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9234.4500000000007</v>
       </c>
       <c r="P127" s="96">
@@ -20464,68 +20471,68 @@
         <v>114</v>
       </c>
       <c r="C130" s="96">
-        <f t="shared" ref="C130" si="36">SUM(C127,C123,C113,C91)</f>
+        <f t="shared" ref="C130" si="35">SUM(C127,C123,C113,C91)</f>
         <v>329287</v>
       </c>
       <c r="D130" s="96">
-        <f t="shared" ref="D130:O130" si="37">SUM(D127,D123,D113,D91)</f>
-        <v>35661.223333333335</v>
+        <f t="shared" ref="D130:O130" si="36">SUM(D127,D123,D113,D91)</f>
+        <v>35509.281666666662</v>
       </c>
       <c r="E130" s="96">
-        <f t="shared" si="37"/>
-        <v>17785.91333333333</v>
+        <f t="shared" si="36"/>
+        <v>17633.971666666665</v>
       </c>
       <c r="F130" s="96">
-        <f t="shared" si="37"/>
-        <v>21575.613333333335</v>
+        <f t="shared" si="36"/>
+        <v>23494.451666666668</v>
       </c>
       <c r="G130" s="96">
-        <f t="shared" si="37"/>
-        <v>39765.013333333336</v>
+        <f t="shared" si="36"/>
+        <v>39613.07166666667</v>
       </c>
       <c r="H130" s="96">
-        <f t="shared" si="37"/>
-        <v>25049.533333333333</v>
+        <f t="shared" si="36"/>
+        <v>24897.591666666667</v>
       </c>
       <c r="I130" s="96">
-        <f t="shared" si="37"/>
-        <v>16932.973333333335</v>
+        <f t="shared" si="36"/>
+        <v>16781.031666666669</v>
       </c>
       <c r="J130" s="96">
-        <f t="shared" si="37"/>
-        <v>40896.203333333331</v>
+        <f t="shared" si="36"/>
+        <v>39544.261666666665</v>
       </c>
       <c r="K130" s="96">
-        <f t="shared" si="37"/>
-        <v>16954.263333333332</v>
+        <f t="shared" si="36"/>
+        <v>16802.321666666667</v>
       </c>
       <c r="L130" s="96">
-        <f t="shared" si="37"/>
-        <v>20211.923333333332</v>
+        <f t="shared" si="36"/>
+        <v>22130.761666666665</v>
       </c>
       <c r="M130" s="96">
-        <f t="shared" si="37"/>
-        <v>35164.093333333338</v>
+        <f t="shared" si="36"/>
+        <v>35012.151666666665</v>
       </c>
       <c r="N130" s="96">
-        <f t="shared" si="37"/>
-        <v>21368.293333333335</v>
+        <f t="shared" si="36"/>
+        <v>21216.351666666669</v>
       </c>
       <c r="O130" s="96">
-        <f t="shared" si="37"/>
-        <v>17039.383333333331</v>
+        <f t="shared" si="36"/>
+        <v>16887.441666666666</v>
       </c>
       <c r="P130" s="96">
         <f>SUM(P127,P123,P113,P91)</f>
-        <v>308404.43</v>
+        <v>309522.69</v>
       </c>
       <c r="Q130" s="96">
         <f t="shared" si="13"/>
-        <v>-20882.570000000007</v>
+        <v>-19764.309999999998</v>
       </c>
       <c r="R130" s="149">
         <f t="shared" si="14"/>
-        <v>-6.3417535462985203E-2</v>
+        <v>-6.0021531369291829E-2</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -20588,68 +20595,68 @@
         <v>116</v>
       </c>
       <c r="C133" s="96">
-        <f t="shared" ref="C133:P133" si="38">-C130+C70</f>
+        <f t="shared" ref="C133:P133" si="37">-C130+C70</f>
         <v>255928</v>
       </c>
       <c r="D133" s="96">
-        <f t="shared" si="38"/>
-        <v>15187.846666666665</v>
+        <f t="shared" si="37"/>
+        <v>15339.788333333338</v>
       </c>
       <c r="E133" s="96">
-        <f t="shared" si="38"/>
-        <v>33706.19666666667</v>
+        <f t="shared" si="37"/>
+        <v>33858.138333333336</v>
       </c>
       <c r="F133" s="96">
-        <f t="shared" si="38"/>
-        <v>30050.346666666665</v>
+        <f t="shared" si="37"/>
+        <v>28131.508333333331</v>
       </c>
       <c r="G133" s="96">
-        <f t="shared" si="38"/>
-        <v>11860.946666666663</v>
+        <f t="shared" si="37"/>
+        <v>12012.888333333329</v>
       </c>
       <c r="H133" s="96">
-        <f t="shared" si="38"/>
-        <v>26684.576666666668</v>
+        <f t="shared" si="37"/>
+        <v>26836.518333333333</v>
       </c>
       <c r="I133" s="96">
-        <f t="shared" si="38"/>
-        <v>34801.136666666665</v>
+        <f t="shared" si="37"/>
+        <v>34953.078333333331</v>
       </c>
       <c r="J133" s="96">
-        <f t="shared" si="38"/>
-        <v>10837.906666666669</v>
+        <f t="shared" si="37"/>
+        <v>12189.848333333335</v>
       </c>
       <c r="K133" s="96">
-        <f t="shared" si="38"/>
-        <v>34779.846666666665</v>
+        <f t="shared" si="37"/>
+        <v>34931.78833333333</v>
       </c>
       <c r="L133" s="96">
-        <f t="shared" si="38"/>
-        <v>31569.08666666667</v>
+        <f t="shared" si="37"/>
+        <v>29650.248333333337</v>
       </c>
       <c r="M133" s="96">
-        <f t="shared" si="38"/>
-        <v>16717.696666666663</v>
+        <f t="shared" si="37"/>
+        <v>16869.638333333336</v>
       </c>
       <c r="N133" s="96">
-        <f t="shared" si="38"/>
-        <v>30513.496666666666</v>
+        <f t="shared" si="37"/>
+        <v>30665.438333333332</v>
       </c>
       <c r="O133" s="96">
-        <f t="shared" si="38"/>
-        <v>34842.406666666669</v>
+        <f t="shared" si="37"/>
+        <v>34994.348333333335</v>
       </c>
       <c r="P133" s="96">
-        <f t="shared" si="38"/>
-        <v>311546.49000000005</v>
+        <f t="shared" si="37"/>
+        <v>310428.23000000004</v>
       </c>
       <c r="Q133" s="96">
         <f t="shared" si="13"/>
-        <v>55618.490000000049</v>
+        <v>54500.23000000004</v>
       </c>
       <c r="R133" s="149">
         <f t="shared" si="14"/>
-        <v>0.21732084805101454</v>
+        <v>0.21295141602325671</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -20674,7 +20681,7 @@
         <v/>
       </c>
       <c r="R134" s="149" t="str">
-        <f t="shared" ref="R134:R184" si="39">IF(C134&lt;&gt;0,Q134/C134,"")</f>
+        <f t="shared" ref="R134:R184" si="38">IF(C134&lt;&gt;0,Q134/C134,"")</f>
         <v/>
       </c>
     </row>
@@ -20702,7 +20709,7 @@
         <v/>
       </c>
       <c r="R135" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -20721,47 +20728,47 @@
         <v>12819.82</v>
       </c>
       <c r="E136" s="95">
-        <f t="shared" ref="E136:O136" si="40">-5471.14+E99</f>
+        <f t="shared" ref="E136:O136" si="39">-5471.14+E99</f>
         <v>-5471.14</v>
       </c>
       <c r="F136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="G136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>12819.82</v>
       </c>
       <c r="H136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="I136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="J136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>12819.82</v>
       </c>
       <c r="K136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="L136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="M136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>12819.82</v>
       </c>
       <c r="N136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="O136" s="95">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-5471.14</v>
       </c>
       <c r="P136" s="94">
@@ -20773,7 +20780,7 @@
         <v>-70489.84</v>
       </c>
       <c r="R136" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>-0.90371589743589742</v>
       </c>
     </row>
@@ -20785,55 +20792,55 @@
         <v>121</v>
       </c>
       <c r="C137" s="96">
-        <f t="shared" ref="C137:O137" si="41">SUM(C136:C136)</f>
+        <f t="shared" ref="C137:O137" si="40">SUM(C136:C136)</f>
         <v>78000</v>
       </c>
       <c r="D137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>12819.82</v>
       </c>
       <c r="E137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="F137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="G137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>12819.82</v>
       </c>
       <c r="H137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="I137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="J137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>12819.82</v>
       </c>
       <c r="K137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="L137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="M137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>12819.82</v>
       </c>
       <c r="N137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="O137" s="96">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-5471.14</v>
       </c>
       <c r="P137" s="96">
@@ -20845,7 +20852,7 @@
         <v>-70489.84</v>
       </c>
       <c r="R137" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>-0.90371589743589742</v>
       </c>
     </row>
@@ -20867,11 +20874,11 @@
       <c r="O138" s="102"/>
       <c r="P138" s="102"/>
       <c r="Q138" s="102" t="str">
-        <f t="shared" ref="Q138:Q187" si="42">IF(C138&lt;&gt;"",P138-C138,"")</f>
+        <f t="shared" ref="Q138:Q187" si="41">IF(C138&lt;&gt;"",P138-C138,"")</f>
         <v/>
       </c>
       <c r="R138" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -20894,7 +20901,7 @@
       <c r="P139" s="195"/>
       <c r="Q139" s="195"/>
       <c r="R139" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -20949,11 +20956,11 @@
         <v>0</v>
       </c>
       <c r="Q140" s="140">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R140" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S140" s="141" t="s">
@@ -21011,11 +21018,11 @@
         <v>0</v>
       </c>
       <c r="Q141" s="140">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R141" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21044,11 +21051,11 @@
         <v>0</v>
       </c>
       <c r="Q142" s="140" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R142" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21060,11 +21067,11 @@
         <v>137</v>
       </c>
       <c r="C143" s="144">
-        <f t="shared" ref="C143" si="43">SUM(C140:C142)</f>
+        <f t="shared" ref="C143" si="42">SUM(C140:C142)</f>
         <v>0</v>
       </c>
       <c r="D143" s="144">
-        <f t="shared" ref="D143:O143" si="44">SUM(D140:D142)</f>
+        <f t="shared" ref="D143:O143" si="43">SUM(D140:D142)</f>
         <v>0</v>
       </c>
       <c r="E143" s="144">
@@ -21072,43 +21079,43 @@
         <v>0</v>
       </c>
       <c r="F143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O143" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P143" s="144">
@@ -21116,11 +21123,11 @@
         <v>0</v>
       </c>
       <c r="Q143" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R143" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21142,11 +21149,11 @@
       <c r="O144" s="102"/>
       <c r="P144" s="102"/>
       <c r="Q144" s="102" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R144" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21168,11 +21175,11 @@
       <c r="O145" s="102"/>
       <c r="P145" s="102"/>
       <c r="Q145" s="102" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R145" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21198,11 +21205,11 @@
       <c r="O146" s="94"/>
       <c r="P146" s="94"/>
       <c r="Q146" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R146" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21226,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="95">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="H147" s="95">
         <f>$P$147/2</f>
@@ -21258,15 +21265,15 @@
         <v>0</v>
       </c>
       <c r="Q147" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R147" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S147" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.25">
@@ -21320,11 +21327,11 @@
         <v>0</v>
       </c>
       <c r="Q148" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R148" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21353,11 +21360,11 @@
         <v>0</v>
       </c>
       <c r="Q149" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R149" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21369,55 +21376,55 @@
         <v>137</v>
       </c>
       <c r="C150" s="96">
-        <f t="shared" ref="C150" si="45">SUM(C147:C149)</f>
+        <f t="shared" ref="C150" si="44">SUM(C147:C149)</f>
         <v>0</v>
       </c>
       <c r="D150" s="96">
-        <f t="shared" ref="D150:O150" si="46">SUM(D147:D149)</f>
+        <f t="shared" ref="D150:O150" si="45">SUM(D147:D149)</f>
         <v>0</v>
       </c>
       <c r="E150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G150" s="96">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-5000</v>
       </c>
       <c r="H150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O150" s="96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P150" s="96">
@@ -21425,11 +21432,11 @@
         <v>0</v>
       </c>
       <c r="Q150" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R150" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21451,11 +21458,11 @@
       <c r="O151" s="99"/>
       <c r="P151" s="99"/>
       <c r="Q151" s="99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R151" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21475,59 +21482,59 @@
         <v>12819.82</v>
       </c>
       <c r="E152" s="96">
-        <f t="shared" ref="E152:P152" si="47">SUM(E150,E143,E137)</f>
+        <f t="shared" ref="E152:P152" si="46">SUM(E150,E143,E137)</f>
         <v>-5471.14</v>
       </c>
       <c r="F152" s="96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>-5471.14</v>
       </c>
       <c r="G152" s="96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
+        <v>7819.82</v>
+      </c>
+      <c r="H152" s="96">
+        <f t="shared" si="46"/>
+        <v>-5471.14</v>
+      </c>
+      <c r="I152" s="96">
+        <f t="shared" si="46"/>
+        <v>-5471.14</v>
+      </c>
+      <c r="J152" s="96">
+        <f t="shared" si="46"/>
         <v>12819.82</v>
       </c>
-      <c r="H152" s="96">
-        <f t="shared" si="47"/>
+      <c r="K152" s="96">
+        <f t="shared" si="46"/>
         <v>-5471.14</v>
       </c>
-      <c r="I152" s="96">
-        <f t="shared" si="47"/>
+      <c r="L152" s="96">
+        <f t="shared" si="46"/>
         <v>-5471.14</v>
       </c>
-      <c r="J152" s="96">
-        <f t="shared" si="47"/>
+      <c r="M152" s="96">
+        <f t="shared" si="46"/>
         <v>12819.82</v>
       </c>
-      <c r="K152" s="96">
-        <f t="shared" si="47"/>
+      <c r="N152" s="96">
+        <f t="shared" si="46"/>
         <v>-5471.14</v>
       </c>
-      <c r="L152" s="96">
-        <f t="shared" si="47"/>
+      <c r="O152" s="96">
+        <f t="shared" si="46"/>
         <v>-5471.14</v>
       </c>
-      <c r="M152" s="96">
-        <f t="shared" si="47"/>
-        <v>12819.82</v>
-      </c>
-      <c r="N152" s="96">
-        <f t="shared" si="47"/>
-        <v>-5471.14</v>
-      </c>
-      <c r="O152" s="96">
-        <f t="shared" si="47"/>
-        <v>-5471.14</v>
-      </c>
       <c r="P152" s="96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>7510.1599999999989</v>
       </c>
       <c r="Q152" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>-70489.84</v>
       </c>
       <c r="R152" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>-0.90371589743589742</v>
       </c>
     </row>
@@ -21549,11 +21556,11 @@
       <c r="O153" s="99"/>
       <c r="P153" s="99"/>
       <c r="Q153" s="99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R153" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21579,11 +21586,11 @@
       <c r="O154" s="94"/>
       <c r="P154" s="94"/>
       <c r="Q154" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R154" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S154" s="106"/>
@@ -21648,11 +21655,11 @@
         <v>-59952.729999999981</v>
       </c>
       <c r="Q155" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>-8183.7299999999814</v>
       </c>
       <c r="R155" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.1580816704977879</v>
       </c>
       <c r="S155" s="93"/>
@@ -21689,15 +21696,15 @@
       <c r="N156" s="95"/>
       <c r="O156" s="95"/>
       <c r="P156" s="94">
-        <f t="shared" ref="P156" si="48">SUM(D156:O156)</f>
+        <f t="shared" ref="P156" si="47">SUM(D156:O156)</f>
         <v>0</v>
       </c>
       <c r="Q156" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R156" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S156" s="5"/>
@@ -21710,67 +21717,67 @@
         <v>147</v>
       </c>
       <c r="C157" s="96">
-        <f t="shared" ref="C157:P157" si="49">SUM(C155:C156)</f>
+        <f t="shared" ref="C157:P157" si="48">SUM(C155:C156)</f>
         <v>-51769</v>
       </c>
       <c r="D157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-4905.1299999999992</v>
       </c>
       <c r="E157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-4921.4799999999996</v>
       </c>
       <c r="F157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-4937.8799999999992</v>
       </c>
       <c r="G157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-4954.3399999999983</v>
       </c>
       <c r="H157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-4970.8599999999988</v>
       </c>
       <c r="I157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-4987.4199999999983</v>
       </c>
       <c r="J157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-5004.0499999999993</v>
       </c>
       <c r="K157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-5020.7299999999996</v>
       </c>
       <c r="L157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-5037.4699999999993</v>
       </c>
       <c r="M157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-5054.2599999999984</v>
       </c>
       <c r="N157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-5071.0999999999985</v>
       </c>
       <c r="O157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-5088.0099999999984</v>
       </c>
       <c r="P157" s="96">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>-59952.729999999981</v>
       </c>
       <c r="Q157" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>-8183.7299999999814</v>
       </c>
       <c r="R157" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.1580816704977879</v>
       </c>
     </row>
@@ -21792,11 +21799,11 @@
       <c r="O158" s="101"/>
       <c r="P158" s="94"/>
       <c r="Q158" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R158" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21822,11 +21829,11 @@
       <c r="O159" s="94"/>
       <c r="P159" s="94"/>
       <c r="Q159" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R159" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21852,11 +21859,11 @@
       <c r="O160" s="94"/>
       <c r="P160" s="94"/>
       <c r="Q160" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R160" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21882,11 +21889,11 @@
       <c r="O161" s="94"/>
       <c r="P161" s="94"/>
       <c r="Q161" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R161" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21912,11 +21919,11 @@
       <c r="O162" s="94"/>
       <c r="P162" s="94"/>
       <c r="Q162" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R162" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21942,11 +21949,11 @@
       <c r="O163" s="94"/>
       <c r="P163" s="94"/>
       <c r="Q163" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R163" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -21972,11 +21979,11 @@
       <c r="O164" s="94"/>
       <c r="P164" s="94"/>
       <c r="Q164" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R164" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22002,11 +22009,11 @@
       <c r="O165" s="94"/>
       <c r="P165" s="94"/>
       <c r="Q165" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R165" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22032,11 +22039,11 @@
       <c r="O166" s="94"/>
       <c r="P166" s="94"/>
       <c r="Q166" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R166" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22062,11 +22069,11 @@
       <c r="O167" s="94"/>
       <c r="P167" s="94"/>
       <c r="Q167" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R167" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22092,11 +22099,11 @@
       <c r="O168" s="94"/>
       <c r="P168" s="94"/>
       <c r="Q168" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R168" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22122,11 +22129,11 @@
       <c r="O169" s="94"/>
       <c r="P169" s="94"/>
       <c r="Q169" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R169" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22152,11 +22159,11 @@
       <c r="O170" s="94"/>
       <c r="P170" s="94"/>
       <c r="Q170" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R170" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22182,11 +22189,11 @@
       <c r="O171" s="94"/>
       <c r="P171" s="94"/>
       <c r="Q171" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R171" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22212,11 +22219,11 @@
       <c r="O172" s="94"/>
       <c r="P172" s="94"/>
       <c r="Q172" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R172" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22242,11 +22249,11 @@
       <c r="O173" s="94"/>
       <c r="P173" s="94"/>
       <c r="Q173" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R173" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22272,11 +22279,11 @@
       <c r="O174" s="94"/>
       <c r="P174" s="94"/>
       <c r="Q174" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R174" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22302,11 +22309,11 @@
       <c r="O175" s="94"/>
       <c r="P175" s="94"/>
       <c r="Q175" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R175" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22332,11 +22339,11 @@
       <c r="O176" s="94"/>
       <c r="P176" s="94"/>
       <c r="Q176" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R176" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22362,11 +22369,11 @@
       <c r="O177" s="94"/>
       <c r="P177" s="94"/>
       <c r="Q177" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R177" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22378,67 +22385,67 @@
         <v>154</v>
       </c>
       <c r="C178" s="96">
-        <f t="shared" ref="C178:P178" si="50">SUM(C160:C177)</f>
+        <f t="shared" ref="C178:P178" si="49">SUM(C160:C177)</f>
         <v>0</v>
       </c>
       <c r="D178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P178" s="96">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q178" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R178" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22460,11 +22467,11 @@
       <c r="O179" s="101"/>
       <c r="P179" s="101"/>
       <c r="Q179" s="101" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R179" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22490,11 +22497,11 @@
       <c r="O180" s="94"/>
       <c r="P180" s="94"/>
       <c r="Q180" s="94" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R180" s="149" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -22503,7 +22510,7 @@
         <v>157</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C181" s="94">
         <v>-960</v>
@@ -22557,15 +22564,15 @@
         <v>-80</v>
       </c>
       <c r="P181" s="94">
-        <f t="shared" ref="P181:P184" si="51">SUM(D181:O181)</f>
+        <f t="shared" ref="P181:P184" si="50">SUM(D181:O181)</f>
         <v>-960</v>
       </c>
       <c r="Q181" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R181" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S181" s="106"/>
@@ -22581,10 +22588,10 @@
     </row>
     <row r="182" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="162" t="s">
+        <v>489</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="C182" s="94">
         <v>-23520</v>
@@ -22638,15 +22645,15 @@
         <v>-1960</v>
       </c>
       <c r="P182" s="94">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-23520</v>
       </c>
       <c r="Q182" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R182" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S182" s="106"/>
@@ -22662,10 +22669,10 @@
     </row>
     <row r="183" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="162" t="s">
+        <v>491</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="C183" s="94">
         <v>-23520</v>
@@ -22719,15 +22726,15 @@
         <v>-1960</v>
       </c>
       <c r="P183" s="94">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-23520</v>
       </c>
       <c r="Q183" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R183" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S183" s="106"/>
@@ -22743,10 +22750,10 @@
     </row>
     <row r="184" spans="1:28" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="162" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C184" s="94">
         <v>-48000</v>
@@ -22800,15 +22807,15 @@
         <v>-4000</v>
       </c>
       <c r="P184" s="94">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-48000</v>
       </c>
       <c r="Q184" s="94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R184" s="149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S184" s="106"/>
@@ -22830,67 +22837,67 @@
         <v>159</v>
       </c>
       <c r="C185" s="96">
-        <f t="shared" ref="C185:P185" si="52">SUM(C181:C184)</f>
+        <f t="shared" ref="C185:P185" si="51">SUM(C181:C184)</f>
         <v>-96000</v>
       </c>
       <c r="D185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="E185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="F185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="G185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="H185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="I185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="J185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="K185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="L185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="M185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="N185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="O185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-8000</v>
       </c>
       <c r="P185" s="96">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>-96000</v>
       </c>
       <c r="Q185" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R185" s="149">
-        <f t="shared" ref="R185:R190" si="53">IF(C185&lt;&gt;0,Q185/C185,"")</f>
+        <f t="shared" ref="R185:R190" si="52">IF(C185&lt;&gt;0,Q185/C185,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -22911,11 +22918,11 @@
       <c r="O186" s="101"/>
       <c r="P186" s="101"/>
       <c r="Q186" s="101" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R186" s="149" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
     </row>
@@ -22937,11 +22944,11 @@
       <c r="O187" s="99"/>
       <c r="P187" s="99"/>
       <c r="Q187" s="99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R187" s="149" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
     </row>
@@ -22951,67 +22958,67 @@
         <v>160</v>
       </c>
       <c r="C188" s="96">
-        <f t="shared" ref="C188:P188" si="54">C152+C157+C178+C185</f>
+        <f t="shared" ref="C188:P188" si="53">C152+C157+C178+C185</f>
         <v>-69769</v>
       </c>
       <c r="D188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-85.309999999999491</v>
       </c>
       <c r="E188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18392.62</v>
       </c>
       <c r="F188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18409.02</v>
       </c>
       <c r="G188" s="96">
-        <f t="shared" si="54"/>
-        <v>-134.51999999999862</v>
+        <f t="shared" si="53"/>
+        <v>-5134.5199999999986</v>
       </c>
       <c r="H188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18442</v>
       </c>
       <c r="I188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18458.559999999998</v>
       </c>
       <c r="J188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-184.22999999999956</v>
       </c>
       <c r="K188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18491.87</v>
       </c>
       <c r="L188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18508.61</v>
       </c>
       <c r="M188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-234.43999999999869</v>
       </c>
       <c r="N188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18542.239999999998</v>
       </c>
       <c r="O188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-18559.149999999998</v>
       </c>
       <c r="P188" s="96">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-148442.56999999998</v>
       </c>
       <c r="Q188" s="96">
-        <f t="shared" ref="Q188:Q190" si="55">IF(C188&lt;&gt;"",P188-C188,"")</f>
+        <f t="shared" ref="Q188:Q190" si="54">IF(C188&lt;&gt;"",P188-C188,"")</f>
         <v>-78673.569999999978</v>
       </c>
       <c r="R188" s="149">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1.1276293196118616</v>
       </c>
     </row>
@@ -23033,11 +23040,11 @@
       <c r="O189" s="103"/>
       <c r="P189" s="103"/>
       <c r="Q189" s="103" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R189" s="149" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
     </row>
@@ -23047,68 +23054,68 @@
         <v>161</v>
       </c>
       <c r="C190" s="96">
-        <f t="shared" ref="C190:P190" si="56">SUM(C188,C133)</f>
+        <f t="shared" ref="C190:P190" si="55">SUM(C188,C133)</f>
         <v>186159</v>
       </c>
       <c r="D190" s="96">
-        <f t="shared" si="56"/>
-        <v>15102.536666666665</v>
+        <f t="shared" si="55"/>
+        <v>15254.478333333338</v>
       </c>
       <c r="E190" s="96">
-        <f t="shared" si="56"/>
-        <v>15313.576666666671</v>
+        <f t="shared" si="55"/>
+        <v>15465.518333333337</v>
       </c>
       <c r="F190" s="96">
-        <f t="shared" si="56"/>
-        <v>11641.326666666664</v>
+        <f t="shared" si="55"/>
+        <v>9722.488333333331</v>
       </c>
       <c r="G190" s="96">
-        <f t="shared" si="56"/>
-        <v>11726.426666666664</v>
+        <f t="shared" si="55"/>
+        <v>6878.3683333333302</v>
       </c>
       <c r="H190" s="96">
-        <f t="shared" si="56"/>
-        <v>8242.5766666666677</v>
+        <f t="shared" si="55"/>
+        <v>8394.5183333333334</v>
       </c>
       <c r="I190" s="96">
-        <f t="shared" si="56"/>
-        <v>16342.576666666668</v>
+        <f t="shared" si="55"/>
+        <v>16494.518333333333</v>
       </c>
       <c r="J190" s="96">
-        <f t="shared" si="56"/>
-        <v>10653.67666666667</v>
+        <f t="shared" si="55"/>
+        <v>12005.618333333336</v>
       </c>
       <c r="K190" s="96">
-        <f t="shared" si="56"/>
-        <v>16287.976666666666</v>
+        <f t="shared" si="55"/>
+        <v>16439.918333333331</v>
       </c>
       <c r="L190" s="96">
-        <f t="shared" si="56"/>
-        <v>13060.476666666669</v>
+        <f t="shared" si="55"/>
+        <v>11141.638333333336</v>
       </c>
       <c r="M190" s="96">
-        <f t="shared" si="56"/>
-        <v>16483.256666666664</v>
+        <f t="shared" si="55"/>
+        <v>16635.198333333337</v>
       </c>
       <c r="N190" s="96">
-        <f t="shared" si="56"/>
-        <v>11971.256666666668</v>
+        <f t="shared" si="55"/>
+        <v>12123.198333333334</v>
       </c>
       <c r="O190" s="96">
-        <f t="shared" si="56"/>
-        <v>16283.256666666672</v>
+        <f t="shared" si="55"/>
+        <v>16435.198333333337</v>
       </c>
       <c r="P190" s="96">
-        <f t="shared" si="56"/>
-        <v>163103.92000000007</v>
+        <f t="shared" si="55"/>
+        <v>161985.66000000006</v>
       </c>
       <c r="Q190" s="96">
-        <f t="shared" si="55"/>
-        <v>-23055.079999999929</v>
+        <f t="shared" si="54"/>
+        <v>-24173.339999999938</v>
       </c>
       <c r="R190" s="149">
-        <f t="shared" si="53"/>
-        <v>-0.12384617450673849</v>
+        <f t="shared" si="52"/>
+        <v>-0.12985319001498685</v>
       </c>
     </row>
     <row r="191" spans="1:28" s="87" customFormat="1" x14ac:dyDescent="0.25">
@@ -23140,47 +23147,47 @@
       <c r="D192" s="105"/>
       <c r="E192" s="105">
         <f>D193</f>
-        <v>15102.536666666665</v>
+        <v>15254.478333333338</v>
       </c>
       <c r="F192" s="105">
-        <f t="shared" ref="F192:O192" si="57">E193</f>
-        <v>30416.113333333335</v>
+        <f t="shared" ref="F192:O192" si="56">E193</f>
+        <v>30719.996666666673</v>
       </c>
       <c r="G192" s="105">
-        <f t="shared" si="57"/>
-        <v>42057.440000000002</v>
+        <f t="shared" si="56"/>
+        <v>40442.485000000001</v>
       </c>
       <c r="H192" s="105">
-        <f t="shared" si="57"/>
-        <v>53783.866666666669</v>
+        <f t="shared" si="56"/>
+        <v>47320.853333333333</v>
       </c>
       <c r="I192" s="105">
-        <f t="shared" si="57"/>
-        <v>62026.443333333336</v>
+        <f t="shared" si="56"/>
+        <v>55715.371666666666</v>
       </c>
       <c r="J192" s="105">
-        <f t="shared" si="57"/>
-        <v>78369.02</v>
+        <f t="shared" si="56"/>
+        <v>72209.89</v>
       </c>
       <c r="K192" s="105">
-        <f t="shared" si="57"/>
-        <v>89022.69666666667</v>
+        <f t="shared" si="56"/>
+        <v>84215.508333333331</v>
       </c>
       <c r="L192" s="105">
-        <f t="shared" si="57"/>
-        <v>105310.67333333334</v>
+        <f t="shared" si="56"/>
+        <v>100655.42666666667</v>
       </c>
       <c r="M192" s="105">
-        <f t="shared" si="57"/>
-        <v>118371.15000000001</v>
+        <f t="shared" si="56"/>
+        <v>111797.065</v>
       </c>
       <c r="N192" s="105">
-        <f t="shared" si="57"/>
-        <v>134854.40666666668</v>
+        <f t="shared" si="56"/>
+        <v>128432.26333333334</v>
       </c>
       <c r="O192" s="105">
-        <f t="shared" si="57"/>
-        <v>146825.66333333333</v>
+        <f t="shared" si="56"/>
+        <v>140555.46166666667</v>
       </c>
       <c r="P192" s="104"/>
       <c r="Q192" s="104"/>
@@ -23194,51 +23201,51 @@
       <c r="C193" s="105"/>
       <c r="D193" s="105">
         <f>D192+D190</f>
-        <v>15102.536666666665</v>
+        <v>15254.478333333338</v>
       </c>
       <c r="E193" s="105">
         <f>E192+E190</f>
-        <v>30416.113333333335</v>
+        <v>30719.996666666673</v>
       </c>
       <c r="F193" s="105">
-        <f t="shared" ref="F193:O193" si="58">F192+F190</f>
-        <v>42057.440000000002</v>
+        <f t="shared" ref="F193:O193" si="57">F192+F190</f>
+        <v>40442.485000000001</v>
       </c>
       <c r="G193" s="105">
-        <f t="shared" si="58"/>
-        <v>53783.866666666669</v>
+        <f t="shared" si="57"/>
+        <v>47320.853333333333</v>
       </c>
       <c r="H193" s="105">
-        <f t="shared" si="58"/>
-        <v>62026.443333333336</v>
+        <f t="shared" si="57"/>
+        <v>55715.371666666666</v>
       </c>
       <c r="I193" s="105">
-        <f t="shared" si="58"/>
-        <v>78369.02</v>
+        <f t="shared" si="57"/>
+        <v>72209.89</v>
       </c>
       <c r="J193" s="105">
-        <f t="shared" si="58"/>
-        <v>89022.69666666667</v>
+        <f t="shared" si="57"/>
+        <v>84215.508333333331</v>
       </c>
       <c r="K193" s="105">
-        <f t="shared" si="58"/>
-        <v>105310.67333333334</v>
+        <f t="shared" si="57"/>
+        <v>100655.42666666667</v>
       </c>
       <c r="L193" s="105">
-        <f t="shared" si="58"/>
-        <v>118371.15000000001</v>
+        <f t="shared" si="57"/>
+        <v>111797.065</v>
       </c>
       <c r="M193" s="105">
-        <f t="shared" si="58"/>
-        <v>134854.40666666668</v>
+        <f t="shared" si="57"/>
+        <v>128432.26333333334</v>
       </c>
       <c r="N193" s="105">
-        <f t="shared" si="58"/>
-        <v>146825.66333333333</v>
+        <f t="shared" si="57"/>
+        <v>140555.46166666667</v>
       </c>
       <c r="O193" s="105">
-        <f t="shared" si="58"/>
-        <v>163108.92000000001</v>
+        <f t="shared" si="57"/>
+        <v>156990.66</v>
       </c>
       <c r="P193" s="105"/>
       <c r="Q193" s="105"/>
@@ -23327,7 +23334,7 @@
     <row r="198" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="131"/>
       <c r="B198" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C198" s="95"/>
       <c r="D198" s="94"/>
@@ -23450,7 +23457,7 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="88" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>466</v>
@@ -23458,55 +23465,55 @@
       <c r="C202" s="95"/>
       <c r="D202" s="100">
         <f>D190+D199</f>
-        <v>15102.536666666665</v>
+        <v>15254.478333333338</v>
       </c>
       <c r="E202" s="100">
         <f>E190+E199</f>
-        <v>15313.576666666671</v>
+        <v>15465.518333333337</v>
       </c>
       <c r="F202" s="100">
         <f>F190+F199</f>
-        <v>11641.326666666664</v>
+        <v>9722.488333333331</v>
       </c>
       <c r="G202" s="100">
         <f>G190+G199</f>
-        <v>11726.426666666664</v>
+        <v>6878.3683333333302</v>
       </c>
       <c r="H202" s="100">
         <f>H190+H199</f>
-        <v>8242.5766666666677</v>
+        <v>8394.5183333333334</v>
       </c>
       <c r="I202" s="100">
         <f>I190+I199</f>
-        <v>16342.576666666668</v>
+        <v>16494.518333333333</v>
       </c>
       <c r="J202" s="100">
         <f>J190+J199</f>
-        <v>10653.67666666667</v>
+        <v>12005.618333333336</v>
       </c>
       <c r="K202" s="100">
         <f>K190+K199</f>
-        <v>16287.976666666666</v>
+        <v>16439.918333333331</v>
       </c>
       <c r="L202" s="100">
         <f>L190+L199</f>
-        <v>13060.476666666669</v>
+        <v>11141.638333333336</v>
       </c>
       <c r="M202" s="100">
         <f>M190+M199</f>
-        <v>16483.256666666664</v>
+        <v>16635.198333333337</v>
       </c>
       <c r="N202" s="100">
         <f>N190+N199</f>
-        <v>11971.256666666668</v>
+        <v>12123.198333333334</v>
       </c>
       <c r="O202" s="100">
         <f>O190+O199</f>
-        <v>16283.256666666672</v>
+        <v>16435.198333333337</v>
       </c>
       <c r="P202" s="100">
         <f>P190+P199</f>
-        <v>163103.92000000007</v>
+        <v>161985.66000000006</v>
       </c>
       <c r="Q202" s="95"/>
       <c r="R202" s="148"/>
@@ -23625,7 +23632,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:B13"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23723,10 +23730,10 @@
     </row>
     <row r="5" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" s="154"/>
       <c r="D5" s="155">
@@ -23789,10 +23796,10 @@
     </row>
     <row r="6" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="154"/>
       <c r="D6" s="155">
@@ -23855,10 +23862,10 @@
     </row>
     <row r="7" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="154"/>
       <c r="D7" s="155">
@@ -23921,10 +23928,10 @@
     </row>
     <row r="8" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C8" s="154"/>
       <c r="D8" s="155">
@@ -23987,10 +23994,10 @@
     </row>
     <row r="9" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="154"/>
       <c r="D9" s="155">
@@ -24053,10 +24060,10 @@
     </row>
     <row r="10" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C10" s="154"/>
       <c r="D10" s="154">
@@ -24119,10 +24126,10 @@
     </row>
     <row r="11" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="156"/>
       <c r="D11" s="154">
@@ -24189,10 +24196,10 @@
     </row>
     <row r="12" spans="1:21" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="158"/>
       <c r="D12" s="158">
@@ -24256,10 +24263,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" s="161" t="s">
         <v>503</v>
-      </c>
-      <c r="B13" s="161" t="s">
-        <v>504</v>
       </c>
       <c r="E13" s="71">
         <v>4229.8999999999996</v>
@@ -24496,10 +24503,10 @@
     </row>
     <row r="6" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="154">
         <v>2850</v>
@@ -24562,10 +24569,10 @@
     </row>
     <row r="7" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="154">
         <f>12835+1958+2403</f>
@@ -24629,10 +24636,10 @@
     </row>
     <row r="8" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C8" s="154">
         <v>1240</v>
@@ -24695,10 +24702,10 @@
     </row>
     <row r="9" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="154">
         <v>976</v>
@@ -24761,10 +24768,10 @@
     </row>
     <row r="10" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C10" s="154">
         <v>1216</v>
@@ -24827,10 +24834,10 @@
     </row>
     <row r="11" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="154">
         <v>24000</v>
@@ -24896,10 +24903,10 @@
     </row>
     <row r="12" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="156">
         <v>2000</v>
@@ -24965,10 +24972,10 @@
     </row>
     <row r="13" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C13" s="158">
         <v>1980</v>
@@ -25034,10 +25041,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="161" t="s">
         <v>503</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>504</v>
       </c>
       <c r="E14" s="71">
         <v>0</v>
@@ -25277,10 +25284,10 @@
     </row>
     <row r="6" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="70">
         <v>2850</v>
@@ -25343,10 +25350,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="76">
         <f>12835+1958+2403</f>
@@ -25409,10 +25416,10 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C8" s="70">
         <v>1240</v>
@@ -25475,10 +25482,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="76">
         <v>976</v>
@@ -25540,10 +25547,10 @@
     </row>
     <row r="10" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C10" s="70">
         <v>1216</v>
@@ -25606,10 +25613,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="70">
         <v>24000</v>
@@ -25674,10 +25681,10 @@
     </row>
     <row r="12" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="73">
         <v>2000</v>
@@ -25743,10 +25750,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C13" s="80">
         <v>1980</v>
@@ -25811,10 +25818,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="161" t="s">
         <v>503</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>504</v>
       </c>
       <c r="C14" s="73">
         <f>SUM(C7:C13)</f>
@@ -25934,7 +25941,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E22" s="95">
         <v>45816.15</v>
@@ -26073,10 +26080,10 @@
     </row>
     <row r="6" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="70">
         <v>2850</v>
@@ -26138,10 +26145,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="76">
         <f>12835+1958+2403</f>
@@ -26204,10 +26211,10 @@
     </row>
     <row r="8" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C8" s="70">
         <v>1240</v>
@@ -26269,10 +26276,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="76">
         <v>976</v>
@@ -26334,10 +26341,10 @@
     </row>
     <row r="10" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C10" s="70">
         <v>1216</v>
@@ -26399,10 +26406,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="70">
         <v>24000</v>
@@ -26464,10 +26471,10 @@
     </row>
     <row r="12" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="73">
         <v>2000</v>
@@ -26529,10 +26536,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C13" s="80">
         <v>1980</v>
@@ -26594,10 +26601,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="161" t="s">
         <v>503</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>504</v>
       </c>
       <c r="C14" s="73">
         <f>SUM(C7:C13)</f>
@@ -27068,7 +27075,7 @@
         <v>471</v>
       </c>
       <c r="C3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
         <v>472</v>
@@ -27085,7 +27092,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C4" s="165"/>
       <c r="D4" s="164">
@@ -27104,10 +27111,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="131" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="130" t="s">
         <v>490</v>
-      </c>
-      <c r="B5" s="130" t="s">
-        <v>491</v>
       </c>
       <c r="C5" s="165"/>
       <c r="D5" s="163">
@@ -27126,10 +27133,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="128" t="s">
         <v>492</v>
-      </c>
-      <c r="B6" s="128" t="s">
-        <v>493</v>
       </c>
       <c r="C6" s="165"/>
       <c r="D6" s="163">
@@ -27148,10 +27155,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="188" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="128" t="s">
         <v>515</v>
-      </c>
-      <c r="B7" s="128" t="s">
-        <v>516</v>
       </c>
       <c r="C7" s="165"/>
       <c r="D7" s="163">
@@ -27185,7 +27192,7 @@
         <v>-8000</v>
       </c>
       <c r="G8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
